--- a/timesheets/timesheet_2.xlsx
+++ b/timesheets/timesheet_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AFj/Dropbox/#cadeiras/CG-1718/Labs/Entrega #2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvs/repo/cg-project/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,22 +399,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,7 +729,7 @@
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,11 +771,11 @@
       <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="26" t="s">
         <v>7</v>
       </c>
@@ -812,11 +812,11 @@
       <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34">
@@ -824,11 +824,11 @@
       </c>
       <c r="G9" s="38">
         <f>SUM(D9:D11)*60+SUM(F9:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="39" t="str">
+        <v>160</v>
+      </c>
+      <c r="H9" s="35" t="str">
         <f>CONCATENATE(QUOTIENT(G9,60),"h",IF(MOD(G9,60)&lt;10,"0",""),MOD(G9,60),"m")</f>
-        <v>0h00m</v>
+        <v>2h40m</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -837,13 +837,13 @@
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="36"/>
@@ -853,13 +853,13 @@
       <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="34">
         <v>0</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="36"/>
@@ -869,11 +869,11 @@
       <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34">
@@ -881,11 +881,11 @@
       </c>
       <c r="G12" s="38">
         <f>SUM(D12:D13)*60+SUM(F12:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="39" t="str">
+        <v>120</v>
+      </c>
+      <c r="H12" s="35" t="str">
         <f>CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
-        <v>0h00m</v>
+        <v>2h00m</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -893,9 +893,9 @@
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34">
@@ -912,11 +912,11 @@
       <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34">
@@ -924,11 +924,11 @@
       </c>
       <c r="G14" s="38">
         <f>SUM(D14:D16)*60+SUM(F14:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="39" t="str">
+        <v>270</v>
+      </c>
+      <c r="H14" s="35" t="str">
         <f>CONCATENATE(QUOTIENT(G14,60),"h",IF(MOD(G14,60)&lt;10,"0",""),MOD(G14,60),"m")</f>
-        <v>0h00m</v>
+        <v>4h30m</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -936,29 +936,29 @@
       <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34">
         <v>0</v>
       </c>
       <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="34">
         <v>0</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="36"/>
@@ -981,11 +981,11 @@
       </c>
       <c r="G18" s="17">
         <f>SUM(G9:G16)</f>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H18" s="23" t="str">
         <f>CONCATENATE(QUOTIENT(G18,60),"h",IF(MOD(G18,60)&lt;10,"0",""),MOD(G18,60),"m")</f>
-        <v>0h00m</v>
+        <v>9h10m</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,17 +1017,17 @@
   </sheetData>
   <sheetProtection password="E05B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 F11:F16">
